--- a/static/attachments/howto/integration/importing-excel-documents/import-a-large-excel-file/Countries.xlsx
+++ b/static/attachments/howto/integration/importing-excel-documents/import-a-large-excel-file/Countries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spl\Desktop\Desktop\BlogPosts\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna.Hemminger\docs\static\attachments\howto\integration\importing-excel-documents\import-a-large-excel-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A167A7-8FD1-4241-AA36-CF0FD06810A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
   <si>
     <t>ANDORRA</t>
   </si>
@@ -851,9 +852,6 @@
     <t>ABC-21/40</t>
   </si>
   <si>
-    <t>ABC-21/41</t>
-  </si>
-  <si>
     <t>ABC-21/42</t>
   </si>
   <si>
@@ -1568,9 +1566,6 @@
     <t>CDE-21/41</t>
   </si>
   <si>
-    <t>CDE-21/42</t>
-  </si>
-  <si>
     <t>CDE-21/43</t>
   </si>
   <si>
@@ -2285,9 +2280,6 @@
     <t>FGH-21/42</t>
   </si>
   <si>
-    <t>FGH-21/43</t>
-  </si>
-  <si>
     <t>FGH-21/44</t>
   </si>
   <si>
@@ -3002,9 +2994,6 @@
     <t>IJK-21/43</t>
   </si>
   <si>
-    <t>IJK-21/44</t>
-  </si>
-  <si>
     <t>IJK-21/45</t>
   </si>
   <si>
@@ -3717,9 +3706,6 @@
   </si>
   <si>
     <t>LMN-21/44</t>
-  </si>
-  <si>
-    <t>LMN-21/45</t>
   </si>
   <si>
     <t>LMN-21/46</t>
@@ -4328,7 +4314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4658,165 +4644,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IE6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ID6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FW10" sqref="FW10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17" bestFit="1" customWidth="1"/>
-    <col min="65" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="103" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="113" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="117" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="120" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="124" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="129" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="135" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="144" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="149" max="154" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="163" max="166" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="168" max="170" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="175" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="180" max="186" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="191" max="194" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="201" max="203" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="212" max="215" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="217" max="219" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="224" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="15" bestFit="1" customWidth="1"/>
-    <col min="231" max="232" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="234" max="236" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="238" max="239" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="59" max="62" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="47.578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="36.26171875" bestFit="1" customWidth="1"/>
+    <col min="94" max="102" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="30.83984375" bestFit="1" customWidth="1"/>
+    <col min="104" max="112" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="114" max="116" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="125" max="128" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="134" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="140" max="143" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="153" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="16" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="162" max="165" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="167" max="169" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="173" max="174" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="179" max="185" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="190" max="193" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="24.83984375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="200" max="202" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="29.26171875" bestFit="1" customWidth="1"/>
+    <col min="211" max="214" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="216" max="218" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="220" max="223" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="12" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="33.83984375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="15" bestFit="1" customWidth="1"/>
+    <col min="230" max="231" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="19.41796875" bestFit="1" customWidth="1"/>
+    <col min="233" max="235" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="237" max="238" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:239" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:238" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,610 +4918,607 @@
         <v>26</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>201</v>
+        <v>1427</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1432</v>
+        <v>128</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="HM1" s="1" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="HN1" s="1" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="HP1" s="1" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="HQ1" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="HR1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="IC1" s="1" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="ID1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="IE1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:239" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:238" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -6250,2884 +6233,2869 @@
       <c r="ID2" t="s">
         <v>474</v>
       </c>
-      <c r="IE2" t="s">
+    </row>
+    <row r="3" spans="1:238" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>475</v>
       </c>
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L3" t="s">
+        <v>486</v>
+      </c>
+      <c r="M3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>491</v>
+      </c>
+      <c r="R3" t="s">
+        <v>492</v>
+      </c>
+      <c r="S3" t="s">
+        <v>493</v>
+      </c>
+      <c r="T3" t="s">
+        <v>494</v>
+      </c>
+      <c r="U3" t="s">
+        <v>495</v>
+      </c>
+      <c r="V3" t="s">
+        <v>496</v>
+      </c>
+      <c r="W3" t="s">
+        <v>497</v>
+      </c>
+      <c r="X3" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>515</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>518</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>527</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>530</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>531</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>532</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>535</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>536</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>537</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>538</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>539</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>540</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>541</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>542</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>545</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>546</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>547</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>548</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>549</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>550</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>551</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>552</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>553</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>554</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>556</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>558</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>559</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>560</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>561</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>562</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>563</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>565</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>566</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>567</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>568</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>569</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>570</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>571</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>572</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>573</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>574</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>575</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>577</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>578</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>579</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>580</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>581</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>582</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>583</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>584</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>585</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>586</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>587</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>588</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>589</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>590</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>591</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>592</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>593</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>594</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>595</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>596</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>597</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>598</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>599</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>600</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>601</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>602</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>603</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>604</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>605</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>606</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>607</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>608</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>609</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>610</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>611</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>612</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>613</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>614</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>615</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>616</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>617</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>618</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>619</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>620</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>621</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>622</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>623</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>624</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>625</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>626</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>627</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>628</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>629</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>630</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>631</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>632</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>633</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>634</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>635</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>636</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>637</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>638</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>639</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>640</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>641</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>642</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>643</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>644</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>645</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>646</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>647</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>648</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>649</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>650</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>651</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>652</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>653</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>654</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>655</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>656</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>657</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>658</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>659</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>660</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>661</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>662</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>663</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>664</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>665</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>666</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>667</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>668</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>669</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>670</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>671</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>672</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>673</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>674</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>675</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>676</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>677</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>678</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>679</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>680</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>681</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>682</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>683</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>684</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>685</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>686</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>687</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>688</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>689</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>690</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>691</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>692</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>693</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>694</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>695</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>696</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>697</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>698</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>699</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>700</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>701</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>702</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>703</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>704</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>705</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>706</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>707</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>708</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>709</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>710</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>711</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>712</v>
+      </c>
     </row>
-    <row r="3" spans="1:239" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I3" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" t="s">
-        <v>485</v>
-      </c>
-      <c r="K3" t="s">
-        <v>486</v>
-      </c>
-      <c r="L3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M3" t="s">
-        <v>488</v>
-      </c>
-      <c r="N3" t="s">
-        <v>489</v>
-      </c>
-      <c r="O3" t="s">
-        <v>490</v>
-      </c>
-      <c r="P3" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>492</v>
-      </c>
-      <c r="R3" t="s">
-        <v>493</v>
-      </c>
-      <c r="S3" t="s">
-        <v>494</v>
-      </c>
-      <c r="T3" t="s">
-        <v>495</v>
-      </c>
-      <c r="U3" t="s">
-        <v>496</v>
-      </c>
-      <c r="V3" t="s">
-        <v>497</v>
-      </c>
-      <c r="W3" t="s">
-        <v>498</v>
-      </c>
-      <c r="X3" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>503</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>505</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>507</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>509</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>510</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>514</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>515</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>516</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>523</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>524</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>527</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>531</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>533</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>534</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>535</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>536</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>537</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>538</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>539</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>540</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>541</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>542</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>543</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>544</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>545</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>546</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>547</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>548</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>549</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>550</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>551</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>552</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>553</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>554</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>555</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>556</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>557</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>558</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>559</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>560</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>561</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>562</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>563</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>564</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>565</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>566</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>567</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>568</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>569</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>570</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>571</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>572</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>573</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>574</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>575</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>576</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>577</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>578</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>579</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>580</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>581</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>582</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>583</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>584</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>585</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>586</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>587</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>588</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>589</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>590</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>591</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>592</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>593</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>594</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>595</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>596</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>597</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>598</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>599</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>600</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>601</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>602</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>603</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>604</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>605</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>606</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>607</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>608</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>609</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>610</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>611</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>612</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>613</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>614</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>615</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>616</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>617</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>618</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>619</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>620</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>621</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>622</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>623</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>624</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>625</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>626</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>627</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>628</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>629</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>630</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>631</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>632</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>633</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>635</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>636</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>637</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>638</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>639</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>640</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>641</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>642</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>643</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>644</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>645</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>646</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>647</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>648</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>649</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>650</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>651</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>652</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>653</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>654</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>655</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>656</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>657</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>658</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>659</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>660</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>661</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>662</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>663</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>664</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>665</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>666</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>667</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>668</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>669</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>670</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>671</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>672</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>673</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>674</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>675</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>676</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>677</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>678</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>679</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>680</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>681</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>682</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>683</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>684</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>685</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>686</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>687</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>688</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>689</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>690</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>691</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>692</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>693</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>694</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>695</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>696</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>697</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>698</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>699</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>700</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>701</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>702</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>703</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>704</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>705</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>706</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>707</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>708</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>709</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>710</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>711</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>712</v>
-      </c>
-      <c r="ID3" t="s">
+    <row r="4" spans="1:238" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>713</v>
       </c>
-      <c r="IE3" t="s">
+      <c r="B4" t="s">
         <v>714</v>
       </c>
+      <c r="C4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H4" t="s">
+        <v>720</v>
+      </c>
+      <c r="I4" t="s">
+        <v>721</v>
+      </c>
+      <c r="J4" t="s">
+        <v>722</v>
+      </c>
+      <c r="K4" t="s">
+        <v>723</v>
+      </c>
+      <c r="L4" t="s">
+        <v>724</v>
+      </c>
+      <c r="M4" t="s">
+        <v>725</v>
+      </c>
+      <c r="N4" t="s">
+        <v>726</v>
+      </c>
+      <c r="O4" t="s">
+        <v>727</v>
+      </c>
+      <c r="P4" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>729</v>
+      </c>
+      <c r="R4" t="s">
+        <v>730</v>
+      </c>
+      <c r="S4" t="s">
+        <v>731</v>
+      </c>
+      <c r="T4" t="s">
+        <v>732</v>
+      </c>
+      <c r="U4" t="s">
+        <v>733</v>
+      </c>
+      <c r="V4" t="s">
+        <v>734</v>
+      </c>
+      <c r="W4" t="s">
+        <v>735</v>
+      </c>
+      <c r="X4" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>743</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>750</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>751</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>752</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>755</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>756</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>757</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>761</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>764</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>765</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>766</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>767</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>768</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>769</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>770</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>771</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>772</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>773</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>774</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>775</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>776</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>777</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>778</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>779</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>780</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>781</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>782</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>783</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>784</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>785</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>786</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>787</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>788</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>789</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>790</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>791</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>792</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>793</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>794</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>795</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>796</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>797</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>798</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>799</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>800</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>801</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>802</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>803</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>804</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>805</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>806</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>807</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>808</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>809</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>810</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>811</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>812</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>813</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>814</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>815</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>816</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>817</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>818</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>819</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>820</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>821</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>822</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>823</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>824</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>825</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>826</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>827</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>828</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>829</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>830</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>831</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>832</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>833</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>834</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>835</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>836</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>837</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>838</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>839</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>840</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>841</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>842</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>843</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>844</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>845</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>846</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>847</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>848</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>849</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>850</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>851</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>852</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>853</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>854</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>855</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>856</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>857</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>858</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>859</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>860</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>861</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>862</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>863</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>864</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>865</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>866</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>867</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>868</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>869</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>870</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>871</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>872</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>873</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>874</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>875</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>876</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>877</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>878</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>879</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>880</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>881</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>882</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>883</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>884</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>885</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>886</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>887</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>888</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>889</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>890</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>891</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>892</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>893</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>894</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>895</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>896</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>897</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>898</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>899</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>900</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>901</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>902</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>903</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>904</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>905</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>906</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>907</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>908</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>909</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>910</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>911</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>912</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>913</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>914</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>915</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>916</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>917</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>918</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>919</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>920</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>921</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>922</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>923</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>924</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>925</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>926</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>927</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>928</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>929</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>930</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>931</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>932</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>933</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>934</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>935</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>936</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>937</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>938</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>939</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>940</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>941</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>942</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>943</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>944</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>945</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>946</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>947</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>948</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>949</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>950</v>
+      </c>
     </row>
-    <row r="4" spans="1:239" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C4" t="s">
-        <v>717</v>
-      </c>
-      <c r="D4" t="s">
-        <v>718</v>
-      </c>
-      <c r="E4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G4" t="s">
-        <v>721</v>
-      </c>
-      <c r="H4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I4" t="s">
-        <v>723</v>
-      </c>
-      <c r="J4" t="s">
-        <v>724</v>
-      </c>
-      <c r="K4" t="s">
-        <v>725</v>
-      </c>
-      <c r="L4" t="s">
-        <v>726</v>
-      </c>
-      <c r="M4" t="s">
-        <v>727</v>
-      </c>
-      <c r="N4" t="s">
-        <v>728</v>
-      </c>
-      <c r="O4" t="s">
-        <v>729</v>
-      </c>
-      <c r="P4" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>731</v>
-      </c>
-      <c r="R4" t="s">
-        <v>732</v>
-      </c>
-      <c r="S4" t="s">
-        <v>733</v>
-      </c>
-      <c r="T4" t="s">
-        <v>734</v>
-      </c>
-      <c r="U4" t="s">
-        <v>735</v>
-      </c>
-      <c r="V4" t="s">
-        <v>736</v>
-      </c>
-      <c r="W4" t="s">
-        <v>737</v>
-      </c>
-      <c r="X4" t="s">
-        <v>738</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>739</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>741</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>742</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>743</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>744</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>745</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>746</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>747</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>748</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>749</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>750</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>751</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>752</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>753</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>754</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>755</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>756</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>757</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>758</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>759</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>760</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>761</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>762</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>763</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>764</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>765</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>766</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>767</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>768</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>769</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>770</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>771</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>772</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>773</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>774</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>775</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>776</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>777</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>778</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>779</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>780</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>781</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>782</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>783</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>784</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>785</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>786</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>787</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>788</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>789</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>790</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>791</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>792</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>793</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>794</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>795</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>796</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>797</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>798</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>799</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>800</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>801</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>802</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>803</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>804</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>805</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>806</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>807</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>808</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>809</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>810</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>811</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>812</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>813</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>814</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>815</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>816</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>817</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>818</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>819</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>820</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>821</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>822</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>823</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>824</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>825</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>826</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>827</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>828</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>829</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>830</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>831</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>832</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>833</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>834</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>835</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>836</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>837</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>838</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>839</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>840</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>841</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>842</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>843</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>844</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>845</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>846</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>847</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>848</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>849</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>850</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>851</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>852</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>853</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>854</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>855</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>856</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>857</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>858</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>859</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>860</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>861</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>862</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>863</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>864</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>865</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>866</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>867</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>868</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>869</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>870</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>871</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>872</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>873</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>874</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>875</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>876</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>877</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>878</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>879</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>880</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>881</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>882</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>883</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>884</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>885</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>886</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>887</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>888</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>889</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>890</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>891</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>892</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>893</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>894</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>895</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>896</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>897</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>898</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>899</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>900</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>901</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>902</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>903</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>904</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>905</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>906</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>907</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>908</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>909</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>910</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>911</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>912</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>913</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>914</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>915</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>916</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>917</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>918</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>919</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>920</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>921</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>922</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>923</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>924</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>925</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>926</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>927</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>928</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>929</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>930</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>931</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>932</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>933</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>934</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>935</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>936</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>937</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>938</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>939</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>940</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>941</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>942</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>943</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>944</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>945</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>946</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>947</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>948</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>949</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>950</v>
-      </c>
-      <c r="IC4" t="s">
+    <row r="5" spans="1:238" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>951</v>
       </c>
-      <c r="ID4" t="s">
+      <c r="B5" t="s">
         <v>952</v>
       </c>
-      <c r="IE4" t="s">
+      <c r="C5" t="s">
         <v>953</v>
       </c>
+      <c r="D5" t="s">
+        <v>954</v>
+      </c>
+      <c r="E5" t="s">
+        <v>955</v>
+      </c>
+      <c r="F5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G5" t="s">
+        <v>957</v>
+      </c>
+      <c r="H5" t="s">
+        <v>958</v>
+      </c>
+      <c r="I5" t="s">
+        <v>959</v>
+      </c>
+      <c r="J5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K5" t="s">
+        <v>961</v>
+      </c>
+      <c r="L5" t="s">
+        <v>962</v>
+      </c>
+      <c r="M5" t="s">
+        <v>963</v>
+      </c>
+      <c r="N5" t="s">
+        <v>964</v>
+      </c>
+      <c r="O5" t="s">
+        <v>965</v>
+      </c>
+      <c r="P5" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>967</v>
+      </c>
+      <c r="R5" t="s">
+        <v>968</v>
+      </c>
+      <c r="S5" t="s">
+        <v>969</v>
+      </c>
+      <c r="T5" t="s">
+        <v>970</v>
+      </c>
+      <c r="U5" t="s">
+        <v>971</v>
+      </c>
+      <c r="V5" t="s">
+        <v>972</v>
+      </c>
+      <c r="W5" t="s">
+        <v>973</v>
+      </c>
+      <c r="X5" t="s">
+        <v>974</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>975</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>978</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>979</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>980</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>981</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>982</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>983</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>984</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>985</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>986</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>987</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>993</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>994</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>995</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>996</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>997</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>998</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>999</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="IB5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>1188</v>
+      </c>
     </row>
-    <row r="5" spans="1:239" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>954</v>
-      </c>
-      <c r="B5" t="s">
-        <v>955</v>
-      </c>
-      <c r="C5" t="s">
-        <v>956</v>
-      </c>
-      <c r="D5" t="s">
-        <v>957</v>
-      </c>
-      <c r="E5" t="s">
-        <v>958</v>
-      </c>
-      <c r="F5" t="s">
-        <v>959</v>
-      </c>
-      <c r="G5" t="s">
-        <v>960</v>
-      </c>
-      <c r="H5" t="s">
-        <v>961</v>
-      </c>
-      <c r="I5" t="s">
-        <v>962</v>
-      </c>
-      <c r="J5" t="s">
-        <v>963</v>
-      </c>
-      <c r="K5" t="s">
-        <v>964</v>
-      </c>
-      <c r="L5" t="s">
-        <v>965</v>
-      </c>
-      <c r="M5" t="s">
-        <v>966</v>
-      </c>
-      <c r="N5" t="s">
-        <v>967</v>
-      </c>
-      <c r="O5" t="s">
-        <v>968</v>
-      </c>
-      <c r="P5" t="s">
-        <v>969</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>970</v>
-      </c>
-      <c r="R5" t="s">
-        <v>971</v>
-      </c>
-      <c r="S5" t="s">
-        <v>972</v>
-      </c>
-      <c r="T5" t="s">
-        <v>973</v>
-      </c>
-      <c r="U5" t="s">
-        <v>974</v>
-      </c>
-      <c r="V5" t="s">
-        <v>975</v>
-      </c>
-      <c r="W5" t="s">
-        <v>976</v>
-      </c>
-      <c r="X5" t="s">
-        <v>977</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>978</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>979</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>980</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>981</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>982</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>983</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>984</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>985</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>986</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>987</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>988</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>989</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>990</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>991</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>992</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>993</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>994</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>995</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>996</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>998</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>999</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>1108</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>1112</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="GD5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="GL5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>1173</v>
-      </c>
-      <c r="HM5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="HN5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="HO5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="HP5" t="s">
-        <v>1177</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>1178</v>
-      </c>
-      <c r="HR5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="HT5" t="s">
-        <v>1181</v>
-      </c>
-      <c r="HU5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="HV5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="HW5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="HY5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="IB5" t="s">
+    <row r="6" spans="1:238" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>1189</v>
       </c>
-      <c r="IC5" t="s">
+      <c r="B6" t="s">
         <v>1190</v>
       </c>
-      <c r="ID5" t="s">
+      <c r="C6" t="s">
         <v>1191</v>
       </c>
-      <c r="IE5" t="s">
+      <c r="D6" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="6" spans="1:239" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>1193</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>1194</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>1195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>1196</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>1197</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>1198</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>1199</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>1200</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>1201</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>1202</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>1203</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>1204</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>1205</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>1206</v>
       </c>
-      <c r="O6" t="s">
+      <c r="S6" t="s">
         <v>1207</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>1208</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>1209</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>1210</v>
       </c>
-      <c r="S6" t="s">
+      <c r="W6" t="s">
         <v>1211</v>
       </c>
-      <c r="T6" t="s">
+      <c r="X6" t="s">
         <v>1212</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>1213</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Z6" t="s">
         <v>1214</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
         <v>1215</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
         <v>1216</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AC6" t="s">
         <v>1217</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AD6" t="s">
         <v>1218</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" t="s">
         <v>1219</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>1220</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>1221</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AH6" t="s">
         <v>1222</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="s">
         <v>1223</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AJ6" t="s">
         <v>1224</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AK6" t="s">
         <v>1225</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>1226</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AM6" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AN6" t="s">
         <v>1228</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AO6" t="s">
         <v>1229</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AP6" t="s">
         <v>1230</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>1231</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AR6" t="s">
         <v>1232</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AS6" t="s">
         <v>1233</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AT6" t="s">
         <v>1234</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AU6" t="s">
         <v>1235</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AV6" t="s">
         <v>1236</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>1237</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AX6" t="s">
         <v>1238</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AY6" t="s">
         <v>1239</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>1240</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>1241</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BB6" t="s">
         <v>1242</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="BC6" t="s">
         <v>1243</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BD6" t="s">
         <v>1244</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BE6" t="s">
         <v>1245</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BF6" t="s">
         <v>1246</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BG6" t="s">
         <v>1247</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BH6" t="s">
         <v>1248</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BI6" t="s">
         <v>1249</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BJ6" t="s">
         <v>1250</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BK6" t="s">
         <v>1251</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BL6" t="s">
         <v>1252</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BM6" t="s">
         <v>1253</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BN6" t="s">
         <v>1254</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BO6" t="s">
         <v>1255</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BP6" t="s">
         <v>1256</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BQ6" t="s">
         <v>1257</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BR6" t="s">
         <v>1258</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BS6" t="s">
         <v>1259</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BT6" t="s">
         <v>1260</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BU6" t="s">
         <v>1261</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BV6" t="s">
         <v>1262</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BW6" t="s">
         <v>1263</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BX6" t="s">
         <v>1264</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BY6" t="s">
         <v>1265</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BZ6" t="s">
         <v>1266</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="CA6" t="s">
         <v>1267</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="CB6" t="s">
         <v>1268</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="CC6" t="s">
         <v>1269</v>
       </c>
-      <c r="BZ6" t="s">
+      <c r="CD6" t="s">
         <v>1270</v>
       </c>
-      <c r="CA6" t="s">
+      <c r="CE6" t="s">
         <v>1271</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CF6" t="s">
         <v>1272</v>
       </c>
-      <c r="CC6" t="s">
+      <c r="CG6" t="s">
         <v>1273</v>
       </c>
-      <c r="CD6" t="s">
+      <c r="CH6" t="s">
         <v>1274</v>
       </c>
-      <c r="CE6" t="s">
+      <c r="CI6" t="s">
         <v>1275</v>
       </c>
-      <c r="CF6" t="s">
+      <c r="CJ6" t="s">
         <v>1276</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CK6" t="s">
         <v>1277</v>
       </c>
-      <c r="CH6" t="s">
+      <c r="CL6" t="s">
         <v>1278</v>
       </c>
-      <c r="CI6" t="s">
+      <c r="CM6" t="s">
         <v>1279</v>
       </c>
-      <c r="CJ6" t="s">
+      <c r="CN6" t="s">
         <v>1280</v>
       </c>
-      <c r="CK6" t="s">
+      <c r="CO6" t="s">
         <v>1281</v>
       </c>
-      <c r="CL6" t="s">
+      <c r="CP6" t="s">
         <v>1282</v>
       </c>
-      <c r="CM6" t="s">
+      <c r="CQ6" t="s">
         <v>1283</v>
       </c>
-      <c r="CN6" t="s">
+      <c r="CR6" t="s">
         <v>1284</v>
       </c>
-      <c r="CO6" t="s">
+      <c r="CS6" t="s">
         <v>1285</v>
       </c>
-      <c r="CP6" t="s">
+      <c r="CT6" t="s">
         <v>1286</v>
       </c>
-      <c r="CQ6" t="s">
+      <c r="CU6" t="s">
         <v>1287</v>
       </c>
-      <c r="CR6" t="s">
+      <c r="CV6" t="s">
         <v>1288</v>
       </c>
-      <c r="CS6" t="s">
+      <c r="CW6" t="s">
         <v>1289</v>
       </c>
-      <c r="CT6" t="s">
+      <c r="CX6" t="s">
         <v>1290</v>
       </c>
-      <c r="CU6" t="s">
+      <c r="CY6" t="s">
         <v>1291</v>
       </c>
-      <c r="CV6" t="s">
+      <c r="CZ6" t="s">
         <v>1292</v>
       </c>
-      <c r="CW6" t="s">
+      <c r="DA6" t="s">
         <v>1293</v>
       </c>
-      <c r="CX6" t="s">
+      <c r="DB6" t="s">
         <v>1294</v>
       </c>
-      <c r="CY6" t="s">
+      <c r="DC6" t="s">
         <v>1295</v>
       </c>
-      <c r="CZ6" t="s">
+      <c r="DD6" t="s">
         <v>1296</v>
       </c>
-      <c r="DA6" t="s">
+      <c r="DE6" t="s">
         <v>1297</v>
       </c>
-      <c r="DB6" t="s">
+      <c r="DF6" t="s">
         <v>1298</v>
       </c>
-      <c r="DC6" t="s">
+      <c r="DG6" t="s">
         <v>1299</v>
       </c>
-      <c r="DD6" t="s">
+      <c r="DH6" t="s">
         <v>1300</v>
       </c>
-      <c r="DE6" t="s">
+      <c r="DI6" t="s">
         <v>1301</v>
       </c>
-      <c r="DF6" t="s">
+      <c r="DJ6" t="s">
         <v>1302</v>
       </c>
-      <c r="DG6" t="s">
+      <c r="DK6" t="s">
         <v>1303</v>
       </c>
-      <c r="DH6" t="s">
+      <c r="DL6" t="s">
         <v>1304</v>
       </c>
-      <c r="DI6" t="s">
+      <c r="DM6" t="s">
         <v>1305</v>
       </c>
-      <c r="DJ6" t="s">
+      <c r="DN6" t="s">
         <v>1306</v>
       </c>
-      <c r="DK6" t="s">
+      <c r="DO6" t="s">
         <v>1307</v>
       </c>
-      <c r="DL6" t="s">
+      <c r="DP6" t="s">
         <v>1308</v>
       </c>
-      <c r="DM6" t="s">
+      <c r="DQ6" t="s">
         <v>1309</v>
       </c>
-      <c r="DN6" t="s">
+      <c r="DR6" t="s">
         <v>1310</v>
       </c>
-      <c r="DO6" t="s">
+      <c r="DS6" t="s">
         <v>1311</v>
       </c>
-      <c r="DP6" t="s">
+      <c r="DT6" t="s">
         <v>1312</v>
       </c>
-      <c r="DQ6" t="s">
+      <c r="DU6" t="s">
         <v>1313</v>
       </c>
-      <c r="DR6" t="s">
+      <c r="DV6" t="s">
         <v>1314</v>
       </c>
-      <c r="DS6" t="s">
+      <c r="DW6" t="s">
         <v>1315</v>
       </c>
-      <c r="DT6" t="s">
+      <c r="DX6" t="s">
         <v>1316</v>
       </c>
-      <c r="DU6" t="s">
+      <c r="DY6" t="s">
         <v>1317</v>
       </c>
-      <c r="DV6" t="s">
+      <c r="DZ6" t="s">
         <v>1318</v>
       </c>
-      <c r="DW6" t="s">
+      <c r="EA6" t="s">
         <v>1319</v>
       </c>
-      <c r="DX6" t="s">
+      <c r="EB6" t="s">
         <v>1320</v>
       </c>
-      <c r="DY6" t="s">
+      <c r="EC6" t="s">
         <v>1321</v>
       </c>
-      <c r="DZ6" t="s">
+      <c r="ED6" t="s">
         <v>1322</v>
       </c>
-      <c r="EA6" t="s">
+      <c r="EE6" t="s">
         <v>1323</v>
       </c>
-      <c r="EB6" t="s">
+      <c r="EF6" t="s">
         <v>1324</v>
       </c>
-      <c r="EC6" t="s">
+      <c r="EG6" t="s">
         <v>1325</v>
       </c>
-      <c r="ED6" t="s">
+      <c r="EH6" t="s">
         <v>1326</v>
       </c>
-      <c r="EE6" t="s">
+      <c r="EI6" t="s">
         <v>1327</v>
       </c>
-      <c r="EF6" t="s">
+      <c r="EJ6" t="s">
         <v>1328</v>
       </c>
-      <c r="EG6" t="s">
+      <c r="EK6" t="s">
         <v>1329</v>
       </c>
-      <c r="EH6" t="s">
+      <c r="EL6" t="s">
         <v>1330</v>
       </c>
-      <c r="EI6" t="s">
+      <c r="EM6" t="s">
         <v>1331</v>
       </c>
-      <c r="EJ6" t="s">
+      <c r="EN6" t="s">
         <v>1332</v>
       </c>
-      <c r="EK6" t="s">
+      <c r="EO6" t="s">
         <v>1333</v>
       </c>
-      <c r="EL6" t="s">
+      <c r="EP6" t="s">
         <v>1334</v>
       </c>
-      <c r="EM6" t="s">
+      <c r="EQ6" t="s">
         <v>1335</v>
       </c>
-      <c r="EN6" t="s">
+      <c r="ER6" t="s">
         <v>1336</v>
       </c>
-      <c r="EO6" t="s">
+      <c r="ES6" t="s">
         <v>1337</v>
       </c>
-      <c r="EP6" t="s">
+      <c r="ET6" t="s">
         <v>1338</v>
       </c>
-      <c r="EQ6" t="s">
+      <c r="EU6" t="s">
         <v>1339</v>
       </c>
-      <c r="ER6" t="s">
+      <c r="EV6" t="s">
         <v>1340</v>
       </c>
-      <c r="ES6" t="s">
+      <c r="EW6" t="s">
         <v>1341</v>
       </c>
-      <c r="ET6" t="s">
+      <c r="EX6" t="s">
         <v>1342</v>
       </c>
-      <c r="EU6" t="s">
+      <c r="EY6" t="s">
         <v>1343</v>
       </c>
-      <c r="EV6" t="s">
+      <c r="EZ6" t="s">
         <v>1344</v>
       </c>
-      <c r="EW6" t="s">
+      <c r="FA6" t="s">
         <v>1345</v>
       </c>
-      <c r="EX6" t="s">
+      <c r="FB6" t="s">
         <v>1346</v>
       </c>
-      <c r="EY6" t="s">
+      <c r="FC6" t="s">
         <v>1347</v>
       </c>
-      <c r="EZ6" t="s">
+      <c r="FD6" t="s">
         <v>1348</v>
       </c>
-      <c r="FA6" t="s">
+      <c r="FE6" t="s">
         <v>1349</v>
       </c>
-      <c r="FB6" t="s">
+      <c r="FF6" t="s">
         <v>1350</v>
       </c>
-      <c r="FC6" t="s">
+      <c r="FG6" t="s">
         <v>1351</v>
       </c>
-      <c r="FD6" t="s">
+      <c r="FH6" t="s">
         <v>1352</v>
       </c>
-      <c r="FE6" t="s">
+      <c r="FI6" t="s">
         <v>1353</v>
       </c>
-      <c r="FF6" t="s">
+      <c r="FJ6" t="s">
         <v>1354</v>
       </c>
-      <c r="FG6" t="s">
+      <c r="FK6" t="s">
         <v>1355</v>
       </c>
-      <c r="FH6" t="s">
+      <c r="FL6" t="s">
         <v>1356</v>
       </c>
-      <c r="FI6" t="s">
+      <c r="FM6" t="s">
         <v>1357</v>
       </c>
-      <c r="FJ6" t="s">
+      <c r="FN6" t="s">
         <v>1358</v>
       </c>
-      <c r="FK6" t="s">
+      <c r="FO6" t="s">
         <v>1359</v>
       </c>
-      <c r="FL6" t="s">
+      <c r="FP6" t="s">
         <v>1360</v>
       </c>
-      <c r="FM6" t="s">
+      <c r="FQ6" t="s">
         <v>1361</v>
       </c>
-      <c r="FN6" t="s">
+      <c r="FR6" t="s">
         <v>1362</v>
       </c>
-      <c r="FO6" t="s">
+      <c r="FS6" t="s">
         <v>1363</v>
       </c>
-      <c r="FP6" t="s">
+      <c r="FT6" t="s">
         <v>1364</v>
       </c>
-      <c r="FQ6" t="s">
+      <c r="FU6" t="s">
         <v>1365</v>
       </c>
-      <c r="FR6" t="s">
+      <c r="FV6" t="s">
         <v>1366</v>
       </c>
-      <c r="FS6" t="s">
+      <c r="FW6" t="s">
         <v>1367</v>
       </c>
-      <c r="FT6" t="s">
+      <c r="FX6" t="s">
         <v>1368</v>
       </c>
-      <c r="FU6" t="s">
+      <c r="FY6" t="s">
         <v>1369</v>
       </c>
-      <c r="FV6" t="s">
+      <c r="FZ6" t="s">
         <v>1370</v>
       </c>
-      <c r="FW6" t="s">
+      <c r="GA6" t="s">
         <v>1371</v>
       </c>
-      <c r="FX6" t="s">
+      <c r="GB6" t="s">
         <v>1372</v>
       </c>
-      <c r="FY6" t="s">
+      <c r="GC6" t="s">
         <v>1373</v>
       </c>
-      <c r="FZ6" t="s">
+      <c r="GD6" t="s">
         <v>1374</v>
       </c>
-      <c r="GA6" t="s">
+      <c r="GE6" t="s">
         <v>1375</v>
       </c>
-      <c r="GB6" t="s">
+      <c r="GF6" t="s">
         <v>1376</v>
       </c>
-      <c r="GC6" t="s">
+      <c r="GG6" t="s">
         <v>1377</v>
       </c>
-      <c r="GD6" t="s">
+      <c r="GH6" t="s">
         <v>1378</v>
       </c>
-      <c r="GE6" t="s">
+      <c r="GI6" t="s">
         <v>1379</v>
       </c>
-      <c r="GF6" t="s">
+      <c r="GJ6" t="s">
         <v>1380</v>
       </c>
-      <c r="GG6" t="s">
+      <c r="GK6" t="s">
         <v>1381</v>
       </c>
-      <c r="GH6" t="s">
+      <c r="GL6" t="s">
         <v>1382</v>
       </c>
-      <c r="GI6" t="s">
+      <c r="GM6" t="s">
         <v>1383</v>
       </c>
-      <c r="GJ6" t="s">
+      <c r="GN6" t="s">
         <v>1384</v>
       </c>
-      <c r="GK6" t="s">
+      <c r="GO6" t="s">
         <v>1385</v>
       </c>
-      <c r="GL6" t="s">
+      <c r="GP6" t="s">
         <v>1386</v>
       </c>
-      <c r="GM6" t="s">
+      <c r="GQ6" t="s">
         <v>1387</v>
       </c>
-      <c r="GN6" t="s">
+      <c r="GR6" t="s">
         <v>1388</v>
       </c>
-      <c r="GO6" t="s">
+      <c r="GS6" t="s">
         <v>1389</v>
       </c>
-      <c r="GP6" t="s">
+      <c r="GT6" t="s">
         <v>1390</v>
       </c>
-      <c r="GQ6" t="s">
+      <c r="GU6" t="s">
         <v>1391</v>
       </c>
-      <c r="GR6" t="s">
+      <c r="GV6" t="s">
         <v>1392</v>
       </c>
-      <c r="GS6" t="s">
+      <c r="GW6" t="s">
         <v>1393</v>
       </c>
-      <c r="GT6" t="s">
+      <c r="GX6" t="s">
         <v>1394</v>
       </c>
-      <c r="GU6" t="s">
+      <c r="GY6" t="s">
         <v>1395</v>
       </c>
-      <c r="GV6" t="s">
+      <c r="GZ6" t="s">
         <v>1396</v>
       </c>
-      <c r="GW6" t="s">
+      <c r="HA6" t="s">
         <v>1397</v>
       </c>
-      <c r="GX6" t="s">
+      <c r="HB6" t="s">
         <v>1398</v>
       </c>
-      <c r="GY6" t="s">
+      <c r="HC6" t="s">
         <v>1399</v>
       </c>
-      <c r="GZ6" t="s">
+      <c r="HD6" t="s">
         <v>1400</v>
       </c>
-      <c r="HA6" t="s">
+      <c r="HE6" t="s">
         <v>1401</v>
       </c>
-      <c r="HB6" t="s">
+      <c r="HF6" t="s">
         <v>1402</v>
       </c>
-      <c r="HC6" t="s">
+      <c r="HG6" t="s">
         <v>1403</v>
       </c>
-      <c r="HD6" t="s">
+      <c r="HH6" t="s">
         <v>1404</v>
       </c>
-      <c r="HE6" t="s">
+      <c r="HI6" t="s">
         <v>1405</v>
       </c>
-      <c r="HF6" t="s">
+      <c r="HJ6" t="s">
         <v>1406</v>
       </c>
-      <c r="HG6" t="s">
+      <c r="HK6" t="s">
         <v>1407</v>
       </c>
-      <c r="HH6" t="s">
+      <c r="HL6" t="s">
         <v>1408</v>
       </c>
-      <c r="HI6" t="s">
+      <c r="HM6" t="s">
         <v>1409</v>
       </c>
-      <c r="HJ6" t="s">
+      <c r="HN6" t="s">
         <v>1410</v>
       </c>
-      <c r="HK6" t="s">
+      <c r="HO6" t="s">
         <v>1411</v>
       </c>
-      <c r="HL6" t="s">
+      <c r="HP6" t="s">
         <v>1412</v>
       </c>
-      <c r="HM6" t="s">
+      <c r="HQ6" t="s">
         <v>1413</v>
       </c>
-      <c r="HN6" t="s">
+      <c r="HR6" t="s">
         <v>1414</v>
       </c>
-      <c r="HO6" t="s">
+      <c r="HS6" t="s">
         <v>1415</v>
       </c>
-      <c r="HP6" t="s">
+      <c r="HT6" t="s">
         <v>1416</v>
       </c>
-      <c r="HQ6" t="s">
+      <c r="HU6" t="s">
         <v>1417</v>
       </c>
-      <c r="HR6" t="s">
+      <c r="HV6" t="s">
         <v>1418</v>
       </c>
-      <c r="HS6" t="s">
+      <c r="HW6" t="s">
         <v>1419</v>
       </c>
-      <c r="HT6" t="s">
+      <c r="HX6" t="s">
         <v>1420</v>
       </c>
-      <c r="HU6" t="s">
+      <c r="HY6" t="s">
         <v>1421</v>
       </c>
-      <c r="HV6" t="s">
+      <c r="HZ6" t="s">
         <v>1422</v>
       </c>
-      <c r="HW6" t="s">
+      <c r="IA6" t="s">
         <v>1423</v>
       </c>
-      <c r="HX6" t="s">
+      <c r="IB6" t="s">
         <v>1424</v>
       </c>
-      <c r="HY6" t="s">
+      <c r="IC6" t="s">
         <v>1425</v>
       </c>
-      <c r="HZ6" t="s">
+      <c r="ID6" t="s">
         <v>1426</v>
-      </c>
-      <c r="IA6" t="s">
-        <v>1427</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>1428</v>
-      </c>
-      <c r="IC6" t="s">
-        <v>1429</v>
-      </c>
-      <c r="ID6" t="s">
-        <v>1430</v>
-      </c>
-      <c r="IE6" t="s">
-        <v>1431</v>
       </c>
     </row>
   </sheetData>
